--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I725"/>
+  <dimension ref="A1:I726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25753,6 +25753,41 @@
         <v>3292200</v>
       </c>
     </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E726" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F726" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G726" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H726" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I726" t="n">
+        <v>6413200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I726"/>
+  <dimension ref="A1:I727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25788,6 +25788,41 @@
         <v>6413200</v>
       </c>
     </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E727" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F727" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G727" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H727" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I727" t="n">
+        <v>7242700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I727"/>
+  <dimension ref="A1:I728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25823,6 +25823,41 @@
         <v>7242700</v>
       </c>
     </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E728" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F728" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G728" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H728" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="I728" t="n">
+        <v>7494300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I728"/>
+  <dimension ref="A1:I729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25858,6 +25858,41 @@
         <v>7494300</v>
       </c>
     </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E729" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F729" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G729" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H729" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="I729" t="n">
+        <v>5672100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I729"/>
+  <dimension ref="A1:I730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25893,6 +25893,41 @@
         <v>5672100</v>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E730" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F730" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G730" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H730" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I730" t="n">
+        <v>2332600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I730"/>
+  <dimension ref="A1:I731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25928,6 +25928,41 @@
         <v>2332600</v>
       </c>
     </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E731" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F731" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="G731" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H731" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I731" t="n">
+        <v>3418200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I731"/>
+  <dimension ref="A1:I732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25963,6 +25963,41 @@
         <v>3418200</v>
       </c>
     </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E732" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F732" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G732" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H732" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="I732" t="n">
+        <v>4978900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I732"/>
+  <dimension ref="A1:I733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25998,6 +25998,41 @@
         <v>4978900</v>
       </c>
     </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E733" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F733" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G733" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="H733" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="I733" t="n">
+        <v>3685400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I733"/>
+  <dimension ref="A1:I734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26033,6 +26033,41 @@
         <v>3685400</v>
       </c>
     </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E734" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F734" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G734" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="H734" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="I734" t="n">
+        <v>2554200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I734"/>
+  <dimension ref="A1:I735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26068,6 +26068,41 @@
         <v>2554200</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E735" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F735" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G735" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H735" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I735" t="n">
+        <v>7957400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I735"/>
+  <dimension ref="A1:I736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26103,6 +26103,41 @@
         <v>7957400</v>
       </c>
     </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E736" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F736" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G736" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H736" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I736" t="n">
+        <v>6032100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I736"/>
+  <dimension ref="A1:I737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26138,6 +26138,41 @@
         <v>6032100</v>
       </c>
     </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E737" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F737" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G737" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H737" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I737" t="n">
+        <v>7548300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I737"/>
+  <dimension ref="A1:I739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26173,6 +26173,76 @@
         <v>7548300</v>
       </c>
     </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E738" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F738" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G738" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H738" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I738" t="n">
+        <v>9852300</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E739" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F739" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G739" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H739" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I739" t="n">
+        <v>9277400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I739"/>
+  <dimension ref="A1:I741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26243,6 +26243,76 @@
         <v>9277400</v>
       </c>
     </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E740" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F740" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G740" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H740" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I740" t="n">
+        <v>6322800</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E741" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F741" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G741" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="H741" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I741" t="n">
+        <v>10108200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I741"/>
+  <dimension ref="A1:I742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26313,6 +26313,41 @@
         <v>10108200</v>
       </c>
     </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E742" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F742" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G742" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H742" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I742" t="n">
+        <v>7544800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I742"/>
+  <dimension ref="A1:I743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26348,6 +26348,41 @@
         <v>7544800</v>
       </c>
     </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E743" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F743" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G743" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="H743" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I743" t="n">
+        <v>11030000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I743"/>
+  <dimension ref="A1:I744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26383,6 +26383,41 @@
         <v>11030000</v>
       </c>
     </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E744" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F744" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G744" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H744" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I744" t="n">
+        <v>5573200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I744"/>
+  <dimension ref="A1:I745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26418,6 +26418,41 @@
         <v>5573200</v>
       </c>
     </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E745" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F745" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G745" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H745" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I745" t="n">
+        <v>37443900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I745"/>
+  <dimension ref="A1:I747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26453,6 +26453,76 @@
         <v>37443900</v>
       </c>
     </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E746" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F746" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G746" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H746" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I746" t="n">
+        <v>22465200</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E747" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F747" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G747" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H747" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I747" t="n">
+        <v>16760100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I747"/>
+  <dimension ref="A1:I748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26523,6 +26523,41 @@
         <v>16760100</v>
       </c>
     </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E748" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F748" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G748" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H748" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I748" t="n">
+        <v>14528300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I748"/>
+  <dimension ref="A1:I749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26558,6 +26558,41 @@
         <v>14528300</v>
       </c>
     </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E749" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F749" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G749" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H749" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I749" t="n">
+        <v>27148400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I749"/>
+  <dimension ref="A1:I758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24040,11 +24040,11 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -24058,28 +24058,28 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>4.37</v>
+        <v>2.773</v>
       </c>
       <c r="F677" t="n">
-        <v>4.39</v>
+        <v>2.773</v>
       </c>
       <c r="G677" t="n">
-        <v>4.34</v>
+        <v>2.754</v>
       </c>
       <c r="H677" t="n">
-        <v>4.36</v>
+        <v>2.76</v>
       </c>
       <c r="I677" t="n">
-        <v>2696000</v>
+        <v>4252948</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -24093,28 +24093,28 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>2.02</v>
+        <v>2.779</v>
       </c>
       <c r="F678" t="n">
-        <v>2.07</v>
+        <v>2.825</v>
       </c>
       <c r="G678" t="n">
-        <v>2.01</v>
+        <v>2.773</v>
       </c>
       <c r="H678" t="n">
-        <v>2.04</v>
+        <v>2.779</v>
       </c>
       <c r="I678" t="n">
-        <v>2605700</v>
+        <v>12181044</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -24128,28 +24128,28 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>2.04</v>
+        <v>2.818</v>
       </c>
       <c r="F679" t="n">
-        <v>2.05</v>
+        <v>2.844</v>
       </c>
       <c r="G679" t="n">
-        <v>2</v>
+        <v>2.805</v>
       </c>
       <c r="H679" t="n">
-        <v>2.01</v>
+        <v>2.818</v>
       </c>
       <c r="I679" t="n">
-        <v>2863000</v>
+        <v>5872497</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -24163,28 +24163,28 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>2</v>
+        <v>2.831</v>
       </c>
       <c r="F680" t="n">
-        <v>2.01</v>
+        <v>2.851</v>
       </c>
       <c r="G680" t="n">
-        <v>1.95</v>
+        <v>2.805</v>
       </c>
       <c r="H680" t="n">
-        <v>2.01</v>
+        <v>2.812</v>
       </c>
       <c r="I680" t="n">
-        <v>2335300</v>
+        <v>3796798</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -24198,28 +24198,28 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>2.01</v>
+        <v>2.818</v>
       </c>
       <c r="F681" t="n">
-        <v>2.02</v>
+        <v>2.831</v>
       </c>
       <c r="G681" t="n">
-        <v>1.99</v>
+        <v>2.779</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>2.779</v>
       </c>
       <c r="I681" t="n">
-        <v>3601800</v>
+        <v>3256348</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -24233,28 +24233,28 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>2.01</v>
+        <v>2.799</v>
       </c>
       <c r="F682" t="n">
-        <v>2.08</v>
+        <v>2.812</v>
       </c>
       <c r="G682" t="n">
-        <v>2</v>
+        <v>2.773</v>
       </c>
       <c r="H682" t="n">
-        <v>2.05</v>
+        <v>2.786</v>
       </c>
       <c r="I682" t="n">
-        <v>5907100</v>
+        <v>1941149</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -24268,28 +24268,28 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>2.07</v>
+        <v>2.799</v>
       </c>
       <c r="F683" t="n">
-        <v>2.08</v>
+        <v>2.857</v>
       </c>
       <c r="G683" t="n">
-        <v>2.01</v>
+        <v>2.779</v>
       </c>
       <c r="H683" t="n">
-        <v>2.05</v>
+        <v>2.805</v>
       </c>
       <c r="I683" t="n">
-        <v>4151200</v>
+        <v>9500095</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -24303,28 +24303,28 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>2.05</v>
+        <v>2.818</v>
       </c>
       <c r="F684" t="n">
-        <v>2.05</v>
+        <v>2.851</v>
       </c>
       <c r="G684" t="n">
-        <v>2.02</v>
+        <v>2.812</v>
       </c>
       <c r="H684" t="n">
-        <v>2.03</v>
+        <v>2.818</v>
       </c>
       <c r="I684" t="n">
-        <v>1828900</v>
+        <v>4621048</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -24338,28 +24338,28 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>2.03</v>
+        <v>2.831</v>
       </c>
       <c r="F685" t="n">
-        <v>2.03</v>
+        <v>2.844</v>
       </c>
       <c r="G685" t="n">
-        <v>1.99</v>
+        <v>2.812</v>
       </c>
       <c r="H685" t="n">
-        <v>2.02</v>
+        <v>2.812</v>
       </c>
       <c r="I685" t="n">
-        <v>2223400</v>
+        <v>2570699</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -24373,28 +24373,28 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>2.02</v>
+        <v>4.37</v>
       </c>
       <c r="F686" t="n">
-        <v>2.03</v>
+        <v>4.39</v>
       </c>
       <c r="G686" t="n">
-        <v>2</v>
+        <v>4.34</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>4.36</v>
       </c>
       <c r="I686" t="n">
-        <v>3137200</v>
+        <v>2696000</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -24408,10 +24408,10 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="F687" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="G687" t="n">
         <v>2.01</v>
@@ -24420,16 +24420,16 @@
         <v>2.04</v>
       </c>
       <c r="I687" t="n">
-        <v>3556500</v>
+        <v>2605700</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -24443,28 +24443,28 @@
         </is>
       </c>
       <c r="E688" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F688" t="n">
         <v>2.05</v>
-      </c>
-      <c r="F688" t="n">
-        <v>2.06</v>
       </c>
       <c r="G688" t="n">
         <v>2</v>
       </c>
       <c r="H688" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="I688" t="n">
-        <v>2884300</v>
+        <v>2863000</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -24478,28 +24478,28 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="F689" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="G689" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H689" t="n">
         <v>2.01</v>
       </c>
-      <c r="H689" t="n">
-        <v>2.03</v>
-      </c>
       <c r="I689" t="n">
-        <v>3915400</v>
+        <v>2335300</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -24516,25 +24516,25 @@
         <v>2.01</v>
       </c>
       <c r="F690" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="G690" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H690" t="n">
         <v>2</v>
       </c>
-      <c r="H690" t="n">
-        <v>2.03</v>
-      </c>
       <c r="I690" t="n">
-        <v>1847000</v>
+        <v>3601800</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -24548,28 +24548,28 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="F691" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G691" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="H691" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="I691" t="n">
-        <v>2465400</v>
+        <v>5907100</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -24583,28 +24583,28 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="F692" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G692" t="n">
         <v>2.01</v>
       </c>
       <c r="H692" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="I692" t="n">
-        <v>2176800</v>
+        <v>4151200</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -24618,28 +24618,28 @@
         </is>
       </c>
       <c r="E693" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F693" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G693" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H693" t="n">
         <v>2.03</v>
       </c>
-      <c r="F693" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="G693" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H693" t="n">
-        <v>2.02</v>
-      </c>
       <c r="I693" t="n">
-        <v>2873200</v>
+        <v>1828900</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -24653,28 +24653,28 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="F694" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="G694" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H694" t="n">
         <v>2.02</v>
       </c>
-      <c r="H694" t="n">
-        <v>2.04</v>
-      </c>
       <c r="I694" t="n">
-        <v>8994400</v>
+        <v>2223400</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24688,28 +24688,28 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="F695" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="G695" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="H695" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I695" t="n">
-        <v>6448500</v>
+        <v>3137200</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24723,28 +24723,28 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="F696" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="G696" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="H696" t="n">
-        <v>2.11</v>
+        <v>2.04</v>
       </c>
       <c r="I696" t="n">
-        <v>7530800</v>
+        <v>3556500</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="F697" t="n">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="G697" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H697" t="n">
-        <v>2.18</v>
+        <v>2.03</v>
       </c>
       <c r="I697" t="n">
-        <v>8410300</v>
+        <v>2884300</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24793,28 +24793,28 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>2.18</v>
+        <v>2.03</v>
       </c>
       <c r="F698" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="G698" t="n">
-        <v>2.17</v>
+        <v>2.01</v>
       </c>
       <c r="H698" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="I698" t="n">
-        <v>3264000</v>
+        <v>3915400</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -24828,28 +24828,28 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="F699" t="n">
-        <v>2.35</v>
+        <v>2.03</v>
       </c>
       <c r="G699" t="n">
-        <v>2.21</v>
+        <v>2</v>
       </c>
       <c r="H699" t="n">
-        <v>2.33</v>
+        <v>2.03</v>
       </c>
       <c r="I699" t="n">
-        <v>11041100</v>
+        <v>1847000</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24863,28 +24863,28 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>2.35</v>
+        <v>2.03</v>
       </c>
       <c r="F700" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="G700" t="n">
-        <v>2.31</v>
+        <v>2.01</v>
       </c>
       <c r="H700" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="I700" t="n">
-        <v>14944500</v>
+        <v>2465400</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24898,28 +24898,28 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="F701" t="n">
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="G701" t="n">
-        <v>2.37</v>
+        <v>2.01</v>
       </c>
       <c r="H701" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="I701" t="n">
-        <v>11610800</v>
+        <v>2176800</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -24933,28 +24933,28 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="F702" t="n">
-        <v>2.43</v>
+        <v>2.07</v>
       </c>
       <c r="G702" t="n">
-        <v>2.37</v>
+        <v>2.01</v>
       </c>
       <c r="H702" t="n">
-        <v>2.39</v>
+        <v>2.02</v>
       </c>
       <c r="I702" t="n">
-        <v>7781000</v>
+        <v>2873200</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24968,28 +24968,28 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>2.37</v>
+        <v>2.04</v>
       </c>
       <c r="F703" t="n">
-        <v>2.37</v>
+        <v>2.08</v>
       </c>
       <c r="G703" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="H703" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="I703" t="n">
-        <v>16234100</v>
+        <v>8994400</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -25003,28 +25003,28 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="F704" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="G704" t="n">
-        <v>2.27</v>
+        <v>2.03</v>
       </c>
       <c r="H704" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="I704" t="n">
-        <v>8476900</v>
+        <v>6448500</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -25038,28 +25038,28 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>2.28</v>
+        <v>2.07</v>
       </c>
       <c r="F705" t="n">
-        <v>2.32</v>
+        <v>2.13</v>
       </c>
       <c r="G705" t="n">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="H705" t="n">
-        <v>2.28</v>
+        <v>2.11</v>
       </c>
       <c r="I705" t="n">
-        <v>6822100</v>
+        <v>7530800</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -25073,28 +25073,28 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="F706" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="G706" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="H706" t="n">
-        <v>2.29</v>
+        <v>2.18</v>
       </c>
       <c r="I706" t="n">
-        <v>7984600</v>
+        <v>8410300</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -25108,28 +25108,28 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="F707" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="G707" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="H707" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="I707" t="n">
-        <v>7804100</v>
+        <v>3264000</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -25143,28 +25143,28 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="F708" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="G708" t="n">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
       <c r="H708" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="I708" t="n">
-        <v>3803700</v>
+        <v>11041100</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -25178,28 +25178,28 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="F709" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="G709" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="H709" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="I709" t="n">
-        <v>4359900</v>
+        <v>14944500</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -25213,28 +25213,28 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="F710" t="n">
-        <v>2.33</v>
+        <v>2.52</v>
       </c>
       <c r="G710" t="n">
-        <v>2.28</v>
+        <v>2.37</v>
       </c>
       <c r="H710" t="n">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="I710" t="n">
-        <v>5819000</v>
+        <v>11610800</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -25248,28 +25248,28 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="F711" t="n">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="G711" t="n">
-        <v>2.29</v>
+        <v>2.37</v>
       </c>
       <c r="H711" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="I711" t="n">
-        <v>10154000</v>
+        <v>7781000</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -25286,25 +25286,25 @@
         <v>2.37</v>
       </c>
       <c r="F712" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="G712" t="n">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="H712" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="I712" t="n">
-        <v>7604600</v>
+        <v>16234100</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -25318,28 +25318,28 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>2.29</v>
+        <v>2.32</v>
       </c>
       <c r="F713" t="n">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="G713" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="H713" t="n">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="I713" t="n">
-        <v>3479400</v>
+        <v>8476900</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -25353,28 +25353,28 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="F714" t="n">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="G714" t="n">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="H714" t="n">
-        <v>2.33</v>
+        <v>2.28</v>
       </c>
       <c r="I714" t="n">
-        <v>3719400</v>
+        <v>6822100</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="F715" t="n">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="G715" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H715" t="n">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="I715" t="n">
-        <v>2556000</v>
+        <v>7984600</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -25423,28 +25423,28 @@
         </is>
       </c>
       <c r="E716" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F716" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G716" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H716" t="n">
         <v>2.27</v>
       </c>
-      <c r="F716" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="G716" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="H716" t="n">
-        <v>2.26</v>
-      </c>
       <c r="I716" t="n">
-        <v>6479300</v>
+        <v>7804100</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -25458,28 +25458,28 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="F717" t="n">
         <v>2.3</v>
       </c>
       <c r="G717" t="n">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="H717" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I717" t="n">
-        <v>5912000</v>
+        <v>3803700</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -25493,28 +25493,28 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="F718" t="n">
         <v>2.3</v>
       </c>
       <c r="G718" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H718" t="n">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="I718" t="n">
-        <v>8346500</v>
+        <v>4359900</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -25528,28 +25528,28 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="F719" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="G719" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H719" t="n">
         <v>2.29</v>
       </c>
-      <c r="G719" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="H719" t="n">
-        <v>2.25</v>
-      </c>
       <c r="I719" t="n">
-        <v>12980200</v>
+        <v>5819000</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -25563,28 +25563,28 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="F720" t="n">
-        <v>2.21</v>
+        <v>2.36</v>
       </c>
       <c r="G720" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="H720" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="I720" t="n">
-        <v>11788800</v>
+        <v>10154000</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -25598,28 +25598,28 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>2.19</v>
+        <v>2.37</v>
       </c>
       <c r="F721" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="G721" t="n">
-        <v>2.18</v>
+        <v>2.29</v>
       </c>
       <c r="H721" t="n">
-        <v>2.22</v>
+        <v>2.29</v>
       </c>
       <c r="I721" t="n">
-        <v>13367700</v>
+        <v>7604600</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -25633,28 +25633,28 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="F722" t="n">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="G722" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="H722" t="n">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="I722" t="n">
-        <v>15228300</v>
+        <v>3479400</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -25668,28 +25668,28 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="F723" t="n">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="G723" t="n">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="H723" t="n">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="I723" t="n">
-        <v>5920200</v>
+        <v>3719400</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -25703,28 +25703,28 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="F724" t="n">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="G724" t="n">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="H724" t="n">
         <v>2.32</v>
       </c>
       <c r="I724" t="n">
-        <v>6215100</v>
+        <v>2556000</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -25738,28 +25738,28 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="F725" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="G725" t="n">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="H725" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="I725" t="n">
-        <v>3292200</v>
+        <v>6479300</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -25773,28 +25773,28 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="F726" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G726" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H726" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="I726" t="n">
-        <v>6413200</v>
+        <v>5912000</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -25808,28 +25808,28 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>2.33</v>
+        <v>2.28</v>
       </c>
       <c r="F727" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="G727" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="H727" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="I727" t="n">
-        <v>7242700</v>
+        <v>8346500</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -25843,28 +25843,28 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="F728" t="n">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="G728" t="n">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="H728" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="I728" t="n">
-        <v>7494300</v>
+        <v>12980200</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -25878,28 +25878,28 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="F729" t="n">
-        <v>2.48</v>
+        <v>2.21</v>
       </c>
       <c r="G729" t="n">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="H729" t="n">
-        <v>2.43</v>
+        <v>2.18</v>
       </c>
       <c r="I729" t="n">
-        <v>5672100</v>
+        <v>11788800</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -25913,28 +25913,28 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>2.43</v>
+        <v>2.19</v>
       </c>
       <c r="F730" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="G730" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="H730" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="I730" t="n">
-        <v>2332600</v>
+        <v>13367700</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -25948,28 +25948,28 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="F731" t="n">
-        <v>2.41</v>
+        <v>2.32</v>
       </c>
       <c r="G731" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="H731" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="I731" t="n">
-        <v>3418200</v>
+        <v>15228300</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -25983,28 +25983,28 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="F732" t="n">
-        <v>2.46</v>
+        <v>2.35</v>
       </c>
       <c r="G732" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H732" t="n">
-        <v>2.43</v>
+        <v>2.32</v>
       </c>
       <c r="I732" t="n">
-        <v>4978900</v>
+        <v>5920200</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -26018,28 +26018,28 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>2.45</v>
+        <v>2.34</v>
       </c>
       <c r="F733" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="G733" t="n">
-        <v>2.41</v>
+        <v>2.31</v>
       </c>
       <c r="H733" t="n">
-        <v>2.43</v>
+        <v>2.32</v>
       </c>
       <c r="I733" t="n">
-        <v>3685400</v>
+        <v>6215100</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -26053,28 +26053,28 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>2.43</v>
+        <v>2.32</v>
       </c>
       <c r="F734" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="G734" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="H734" t="n">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="I734" t="n">
-        <v>2554200</v>
+        <v>3292200</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -26091,25 +26091,25 @@
         <v>2.32</v>
       </c>
       <c r="F735" t="n">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="G735" t="n">
         <v>2.3</v>
       </c>
       <c r="H735" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I735" t="n">
-        <v>7957400</v>
+        <v>6413200</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -26123,28 +26123,28 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="F736" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="G736" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="H736" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="I736" t="n">
-        <v>6032100</v>
+        <v>7242700</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -26158,28 +26158,28 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="F737" t="n">
-        <v>2.34</v>
+        <v>2.45</v>
       </c>
       <c r="G737" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H737" t="n">
-        <v>2.34</v>
+        <v>2.43</v>
       </c>
       <c r="I737" t="n">
-        <v>7548300</v>
+        <v>7494300</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -26193,28 +26193,28 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="F738" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G738" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="H738" t="n">
-        <v>2.32</v>
+        <v>2.43</v>
       </c>
       <c r="I738" t="n">
-        <v>9852300</v>
+        <v>5672100</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -26228,28 +26228,28 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>2.29</v>
+        <v>2.43</v>
       </c>
       <c r="F739" t="n">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="G739" t="n">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="H739" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I739" t="n">
-        <v>9277400</v>
+        <v>2332600</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -26263,28 +26263,28 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>2.19</v>
+        <v>2.4</v>
       </c>
       <c r="F740" t="n">
-        <v>2.27</v>
+        <v>2.41</v>
       </c>
       <c r="G740" t="n">
-        <v>2.13</v>
+        <v>2.37</v>
       </c>
       <c r="H740" t="n">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="I740" t="n">
-        <v>6322800</v>
+        <v>3418200</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -26298,28 +26298,28 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="F741" t="n">
-        <v>2.25</v>
+        <v>2.46</v>
       </c>
       <c r="G741" t="n">
-        <v>2.21</v>
+        <v>2.4</v>
       </c>
       <c r="H741" t="n">
-        <v>2.22</v>
+        <v>2.43</v>
       </c>
       <c r="I741" t="n">
-        <v>10108200</v>
+        <v>4978900</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -26333,28 +26333,28 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>2.22</v>
+        <v>2.45</v>
       </c>
       <c r="F742" t="n">
-        <v>2.24</v>
+        <v>2.45</v>
       </c>
       <c r="G742" t="n">
-        <v>2.19</v>
+        <v>2.41</v>
       </c>
       <c r="H742" t="n">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="I742" t="n">
-        <v>7544800</v>
+        <v>3685400</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -26368,28 +26368,28 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="F743" t="n">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="G743" t="n">
-        <v>2.23</v>
+        <v>2.41</v>
       </c>
       <c r="H743" t="n">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="I743" t="n">
-        <v>11030000</v>
+        <v>2554200</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -26403,28 +26403,28 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="F744" t="n">
-        <v>2.28</v>
+        <v>2.39</v>
       </c>
       <c r="G744" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="H744" t="n">
-        <v>2.27</v>
+        <v>2.36</v>
       </c>
       <c r="I744" t="n">
-        <v>5573200</v>
+        <v>7957400</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -26438,28 +26438,28 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>2.11</v>
+        <v>2.31</v>
       </c>
       <c r="F745" t="n">
-        <v>2.11</v>
+        <v>2.35</v>
       </c>
       <c r="G745" t="n">
-        <v>1.73</v>
+        <v>2.31</v>
       </c>
       <c r="H745" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="I745" t="n">
-        <v>37443900</v>
+        <v>6032100</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -26473,28 +26473,28 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>1.8</v>
+        <v>2.33</v>
       </c>
       <c r="F746" t="n">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
       <c r="G746" t="n">
-        <v>1.76</v>
+        <v>2.32</v>
       </c>
       <c r="H746" t="n">
-        <v>1.85</v>
+        <v>2.34</v>
       </c>
       <c r="I746" t="n">
-        <v>22465200</v>
+        <v>7548300</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -26508,28 +26508,28 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="F747" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="G747" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="H747" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="I747" t="n">
-        <v>16760100</v>
+        <v>9852300</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -26543,53 +26543,368 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>1.92</v>
+        <v>2.29</v>
       </c>
       <c r="F748" t="n">
-        <v>1.92</v>
+        <v>2.29</v>
       </c>
       <c r="G748" t="n">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="H748" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="I748" t="n">
-        <v>14528300</v>
+        <v>9277400</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E749" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F749" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G749" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H749" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I749" t="n">
+        <v>6322800</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E750" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F750" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G750" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="H750" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I750" t="n">
+        <v>10108200</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E751" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F751" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G751" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H751" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I751" t="n">
+        <v>7544800</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E752" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F752" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G752" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="H752" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I752" t="n">
+        <v>11030000</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E753" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F753" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G753" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H753" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I753" t="n">
+        <v>5573200</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E754" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F754" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G754" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H754" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I754" t="n">
+        <v>37443900</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E755" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F755" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G755" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H755" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I755" t="n">
+        <v>22465200</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E756" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F756" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G756" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H756" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I756" t="n">
+        <v>16760100</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E757" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F757" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G757" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H757" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I757" t="n">
+        <v>14528300</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B749" t="inlineStr">
+      <c r="B758" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C749" t="inlineStr">
-        <is>
-          <t>5279</t>
-        </is>
-      </c>
-      <c r="D749" t="inlineStr">
-        <is>
-          <t>SERBADK</t>
-        </is>
-      </c>
-      <c r="E749" t="n">
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E758" t="n">
         <v>1.69</v>
       </c>
-      <c r="F749" t="n">
+      <c r="F758" t="n">
         <v>1.76</v>
       </c>
-      <c r="G749" t="n">
+      <c r="G758" t="n">
         <v>1.59</v>
       </c>
-      <c r="H749" t="n">
+      <c r="H758" t="n">
         <v>1.72</v>
       </c>
-      <c r="I749" t="n">
+      <c r="I758" t="n">
         <v>27148400</v>
       </c>
     </row>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I758"/>
+  <dimension ref="A1:I759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26908,6 +26908,41 @@
         <v>27148400</v>
       </c>
     </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E759" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F759" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G759" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H759" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I759" t="n">
+        <v>18291800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I759"/>
+  <dimension ref="A1:I760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26943,6 +26943,41 @@
         <v>18291800</v>
       </c>
     </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E760" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F760" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G760" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H760" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I760" t="n">
+        <v>12668400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I760"/>
+  <dimension ref="A1:I761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26978,6 +26978,41 @@
         <v>12668400</v>
       </c>
     </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E761" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F761" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G761" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H761" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I761" t="n">
+        <v>11505600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I761"/>
+  <dimension ref="A1:I762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27013,6 +27013,41 @@
         <v>11505600</v>
       </c>
     </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E762" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F762" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G762" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H762" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I762" t="n">
+        <v>19726800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I762"/>
+  <dimension ref="A1:I763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27048,6 +27048,41 @@
         <v>19726800</v>
       </c>
     </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E763" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F763" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G763" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H763" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I763" t="n">
+        <v>27307400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I763"/>
+  <dimension ref="A1:I764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27083,6 +27083,41 @@
         <v>27307400</v>
       </c>
     </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E764" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F764" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G764" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H764" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I764" t="n">
+        <v>13251600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I764"/>
+  <dimension ref="A1:I765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27118,6 +27118,41 @@
         <v>13251600</v>
       </c>
     </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E765" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F765" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G765" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H765" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I765" t="n">
+        <v>17635300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I765"/>
+  <dimension ref="A1:I766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27153,6 +27153,41 @@
         <v>17635300</v>
       </c>
     </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E766" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F766" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G766" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H766" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I766" t="n">
+        <v>18880400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I766"/>
+  <dimension ref="A1:I767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27188,6 +27188,41 @@
         <v>18880400</v>
       </c>
     </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E767" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F767" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G767" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H767" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I767" t="n">
+        <v>9914500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I767"/>
+  <dimension ref="A1:I768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27223,6 +27223,41 @@
         <v>9914500</v>
       </c>
     </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E768" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F768" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G768" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H768" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I768" t="n">
+        <v>7068800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I768"/>
+  <dimension ref="A1:I769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27258,6 +27258,41 @@
         <v>7068800</v>
       </c>
     </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E769" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F769" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G769" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H769" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I769" t="n">
+        <v>8586500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I769"/>
+  <dimension ref="A1:I770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27293,6 +27293,41 @@
         <v>8586500</v>
       </c>
     </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E770" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F770" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G770" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H770" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I770" t="n">
+        <v>9120900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I770"/>
+  <dimension ref="A1:I771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27328,6 +27328,41 @@
         <v>9120900</v>
       </c>
     </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E771" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F771" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G771" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H771" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I771" t="n">
+        <v>10395400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I771"/>
+  <dimension ref="A1:I772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27363,6 +27363,41 @@
         <v>10395400</v>
       </c>
     </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E772" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F772" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G772" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H772" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I772" t="n">
+        <v>23417300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I772"/>
+  <dimension ref="A1:I773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27398,6 +27398,41 @@
         <v>23417300</v>
       </c>
     </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E773" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F773" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G773" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H773" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I773" t="n">
+        <v>50348200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I773"/>
+  <dimension ref="A1:I774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27433,6 +27433,41 @@
         <v>50348200</v>
       </c>
     </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E774" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F774" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G774" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H774" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I774" t="n">
+        <v>23152500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I774"/>
+  <dimension ref="A1:I775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27468,6 +27468,41 @@
         <v>23152500</v>
       </c>
     </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E775" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F775" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G775" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H775" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I775" t="n">
+        <v>13198300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I775"/>
+  <dimension ref="A1:I776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27503,6 +27503,41 @@
         <v>13198300</v>
       </c>
     </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E776" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F776" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G776" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H776" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I776" t="n">
+        <v>11973000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I776"/>
+  <dimension ref="A1:I777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27538,6 +27538,41 @@
         <v>11973000</v>
       </c>
     </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E777" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F777" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G777" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H777" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I777" t="n">
+        <v>15303600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I777"/>
+  <dimension ref="A1:I778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27573,6 +27573,41 @@
         <v>15303600</v>
       </c>
     </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E778" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F778" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G778" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H778" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I778" t="n">
+        <v>24438300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I778"/>
+  <dimension ref="A1:I779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27608,6 +27608,41 @@
         <v>24438300</v>
       </c>
     </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E779" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F779" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G779" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H779" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I779" t="n">
+        <v>14387500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I779"/>
+  <dimension ref="A1:I780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27643,6 +27643,41 @@
         <v>14387500</v>
       </c>
     </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E780" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F780" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G780" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H780" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I780" t="n">
+        <v>18990800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I780"/>
+  <dimension ref="A1:I781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27678,6 +27678,41 @@
         <v>18990800</v>
       </c>
     </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E781" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F781" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G781" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H781" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I781" t="n">
+        <v>29756500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I781"/>
+  <dimension ref="A1:I782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27713,6 +27713,41 @@
         <v>29756500</v>
       </c>
     </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E782" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F782" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G782" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H782" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I782" t="n">
+        <v>41130000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I782"/>
+  <dimension ref="A1:I783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27748,6 +27748,41 @@
         <v>41130000</v>
       </c>
     </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E783" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F783" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G783" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H783" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I783" t="n">
+        <v>14038100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I783"/>
+  <dimension ref="A1:I785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27783,6 +27783,76 @@
         <v>14038100</v>
       </c>
     </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E784" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F784" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G784" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H784" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I784" t="n">
+        <v>22672400</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E785" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F785" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G785" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H785" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I785" t="n">
+        <v>36894400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I785"/>
+  <dimension ref="A1:I786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27853,6 +27853,41 @@
         <v>36894400</v>
       </c>
     </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E786" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F786" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G786" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H786" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I786" t="n">
+        <v>15455900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I786"/>
+  <dimension ref="A1:I789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27888,6 +27888,111 @@
         <v>15455900</v>
       </c>
     </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E787" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F787" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G787" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H787" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I787" t="n">
+        <v>10789500</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E788" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F788" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G788" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H788" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I788" t="n">
+        <v>24968500</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E789" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F789" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G789" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H789" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I789" t="n">
+        <v>7560000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I789"/>
+  <dimension ref="A1:I790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27993,6 +27993,41 @@
         <v>7560000</v>
       </c>
     </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E790" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F790" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G790" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H790" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I790" t="n">
+        <v>11778700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I790"/>
+  <dimension ref="A1:I791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28028,6 +28028,41 @@
         <v>11778700</v>
       </c>
     </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E791" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F791" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G791" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H791" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I791" t="n">
+        <v>7176300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5279.xlsx
+++ b/data/5279.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I791"/>
+  <dimension ref="A1:I794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28063,6 +28063,111 @@
         <v>7176300</v>
       </c>
     </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E792" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F792" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G792" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H792" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I792" t="n">
+        <v>16908600</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E793" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F793" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G793" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H793" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I793" t="n">
+        <v>6072300</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>SERBADK</t>
+        </is>
+      </c>
+      <c r="E794" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F794" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G794" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H794" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I794" t="n">
+        <v>29840600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
